--- a/xlsx/上海国际问题研究院_intext.xlsx
+++ b/xlsx/上海国际问题研究院_intext.xlsx
@@ -29,7 +29,7 @@
     <t>上海市</t>
   </si>
   <si>
-    <t>政策_政策_智庫_上海国际问题研究院</t>
+    <t>政策_政策_智库_上海国际问题研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E6%B1%87%E5%8C%BA</t>
